--- a/Samples/Financeiro/Aula-01/CheckList.xlsx
+++ b/Samples/Financeiro/Aula-01/CheckList.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Prgplus\Git\exemplos\financeiro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Prgplus\Git\designer\Samples\Financeiro\Aula-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A37AB28-534A-44D8-9E16-95CCBBD5ED6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C62DB6A-4247-4D59-83F7-257A88FC067D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AED1C9FA-9351-4CE7-A9F9-415DED756E03}"/>
   </bookViews>
@@ -90,9 +90,6 @@
     <t>PagarReceber</t>
   </si>
   <si>
-    <t>Obter Projeto Modelo</t>
-  </si>
-  <si>
     <t>http://www.geocities.ws/harbourminas/download/finance_v1.0.zip</t>
   </si>
   <si>
@@ -118,6 +115,9 @@
   </si>
   <si>
     <t>(Curso SQL Server/Bom professor)</t>
+  </si>
+  <si>
+    <t>Obter Projeto Migração</t>
   </si>
 </sst>
 </file>
@@ -203,18 +203,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -432,15 +432,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
+      <xdr:colOff>198120</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>414273</xdr:colOff>
+      <xdr:colOff>406653</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>25915</xdr:rowOff>
+      <xdr:rowOff>71635</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -463,12 +463,378 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4008120" y="1348740"/>
+          <a:off x="4000500" y="1394460"/>
           <a:ext cx="8133333" cy="6038095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagem 5" descr="ícone Ok Livre de Super Flat Remix V1.08 Emblems">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E84B3EE5-3B30-4FB5-8FF5-F2EACAD2614A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7505700" y="0"/>
+          <a:ext cx="213360" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagem 6" descr="ícone Ok Livre de Super Flat Remix V1.08 Emblems">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68EC97D3-2707-4398-A77B-9E75A5D350CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5021580" y="182880"/>
+          <a:ext cx="213360" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagem 7" descr="ícone Ok Livre de Super Flat Remix V1.08 Emblems">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB699042-C303-4CF0-8DD8-4E69B3872DDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2682240" y="381000"/>
+          <a:ext cx="213360" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagem 8" descr="ícone Ok Livre de Super Flat Remix V1.08 Emblems">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61F6304F-CA97-4E36-A79B-447305273ADB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2682240" y="563880"/>
+          <a:ext cx="213360" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagem 9" descr="ícone Ok Livre de Super Flat Remix V1.08 Emblems">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD0F3CBF-7DCF-4A00-9528-F81081C5A197}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2682240" y="746760"/>
+          <a:ext cx="213360" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagem 10" descr="ícone Ok Livre de Super Flat Remix V1.08 Emblems">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C23B235-6963-41DE-860F-DB0D58F6C051}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6850380" y="929640"/>
+          <a:ext cx="213360" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -776,7 +1142,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -807,12 +1173,12 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -820,7 +1186,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -828,7 +1194,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -839,15 +1205,15 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <f t="shared" ref="A4:A23" si="0">A6+1</f>
+        <f t="shared" ref="A7:A23" si="0">A6+1</f>
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -855,89 +1221,89 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" t="s">
         <v>26</v>
-      </c>
-      <c r="M7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="9"/>
+      <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="8" t="s">
         <v>14</v>
       </c>
     </row>
